--- a/AfDD_2021_Annex_Table_Tab06.xlsx
+++ b/AfDD_2021_Annex_Table_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -922,7 +922,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1053,6 +1053,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1368,7 +1369,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4491,17 +4492,17 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="47" t="s">
+      <c r="B109" s="48" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="47" t="s">
+      <c r="B110" s="48" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="47" t="s">
+      <c r="B111" s="48" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4509,10 +4510,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab06.xlsx
+++ b/AfDD_2021_Annex_Table_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>

--- a/AfDD_2021_Annex_Table_Tab06.xlsx
+++ b/AfDD_2021_Annex_Table_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab06.xlsx
+++ b/AfDD_2021_Annex_Table_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab06.xlsx
+++ b/AfDD_2021_Annex_Table_Tab06.xlsx
@@ -481,7 +481,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab06.xlsx
+++ b/AfDD_2021_Annex_Table_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab06.xlsx
+++ b/AfDD_2021_Annex_Table_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
